--- a/05_functional_enrichment/funciones_72_48_kegg_ups.xlsx
+++ b/05_functional_enrichment/funciones_72_48_kegg_ups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="149">
   <si>
     <t>ID</t>
   </si>
@@ -89,12 +89,12 @@
     <t>00980</t>
   </si>
   <si>
+    <t>04540</t>
+  </si>
+  <si>
     <t>03410</t>
   </si>
   <si>
-    <t>04540</t>
-  </si>
-  <si>
     <t>03030</t>
   </si>
   <si>
@@ -194,12 +194,12 @@
     <t>Metabolism of xenobiotics by cytochrome P450</t>
   </si>
   <si>
+    <t>Gap junction</t>
+  </si>
+  <si>
     <t>Base excision repair</t>
   </si>
   <si>
-    <t>Gap junction</t>
-  </si>
-  <si>
     <t>DNA replication</t>
   </si>
   <si>
@@ -269,103 +269,106 @@
     <t>1/39</t>
   </si>
   <si>
-    <t>89/4578</t>
-  </si>
-  <si>
-    <t>135/4578</t>
-  </si>
-  <si>
-    <t>77/4578</t>
-  </si>
-  <si>
-    <t>81/4578</t>
-  </si>
-  <si>
-    <t>33/4578</t>
-  </si>
-  <si>
-    <t>123/4578</t>
-  </si>
-  <si>
-    <t>62/4578</t>
-  </si>
-  <si>
-    <t>14/4578</t>
-  </si>
-  <si>
-    <t>174/4578</t>
-  </si>
-  <si>
-    <t>25/4578</t>
-  </si>
-  <si>
-    <t>26/4578</t>
-  </si>
-  <si>
-    <t>28/4578</t>
-  </si>
-  <si>
-    <t>29/4578</t>
-  </si>
-  <si>
-    <t>30/4578</t>
-  </si>
-  <si>
-    <t>31/4578</t>
-  </si>
-  <si>
-    <t>35/4578</t>
-  </si>
-  <si>
-    <t>116/4578</t>
-  </si>
-  <si>
-    <t>38/4578</t>
-  </si>
-  <si>
-    <t>44/4578</t>
-  </si>
-  <si>
-    <t>46/4578</t>
-  </si>
-  <si>
-    <t>141/4578</t>
-  </si>
-  <si>
-    <t>49/4578</t>
-  </si>
-  <si>
-    <t>51/4578</t>
-  </si>
-  <si>
-    <t>148/4578</t>
-  </si>
-  <si>
-    <t>364/4578</t>
-  </si>
-  <si>
-    <t>73/4578</t>
-  </si>
-  <si>
-    <t>224/4578</t>
-  </si>
-  <si>
-    <t>103/4578</t>
-  </si>
-  <si>
-    <t>125/4578</t>
-  </si>
-  <si>
-    <t>144/4578</t>
-  </si>
-  <si>
-    <t>154/4578</t>
-  </si>
-  <si>
-    <t>252/4578</t>
-  </si>
-  <si>
-    <t>283/4578</t>
+    <t>89/4577</t>
+  </si>
+  <si>
+    <t>135/4577</t>
+  </si>
+  <si>
+    <t>77/4577</t>
+  </si>
+  <si>
+    <t>81/4577</t>
+  </si>
+  <si>
+    <t>33/4577</t>
+  </si>
+  <si>
+    <t>123/4577</t>
+  </si>
+  <si>
+    <t>62/4577</t>
+  </si>
+  <si>
+    <t>14/4577</t>
+  </si>
+  <si>
+    <t>174/4577</t>
+  </si>
+  <si>
+    <t>25/4577</t>
+  </si>
+  <si>
+    <t>26/4577</t>
+  </si>
+  <si>
+    <t>28/4577</t>
+  </si>
+  <si>
+    <t>29/4577</t>
+  </si>
+  <si>
+    <t>30/4577</t>
+  </si>
+  <si>
+    <t>31/4577</t>
+  </si>
+  <si>
+    <t>115/4577</t>
+  </si>
+  <si>
+    <t>35/4577</t>
+  </si>
+  <si>
+    <t>38/4577</t>
+  </si>
+  <si>
+    <t>44/4577</t>
+  </si>
+  <si>
+    <t>46/4577</t>
+  </si>
+  <si>
+    <t>141/4577</t>
+  </si>
+  <si>
+    <t>49/4577</t>
+  </si>
+  <si>
+    <t>51/4577</t>
+  </si>
+  <si>
+    <t>148/4577</t>
+  </si>
+  <si>
+    <t>364/4577</t>
+  </si>
+  <si>
+    <t>73/4577</t>
+  </si>
+  <si>
+    <t>224/4577</t>
+  </si>
+  <si>
+    <t>102/4577</t>
+  </si>
+  <si>
+    <t>124/4577</t>
+  </si>
+  <si>
+    <t>127/4577</t>
+  </si>
+  <si>
+    <t>142/4577</t>
+  </si>
+  <si>
+    <t>154/4577</t>
+  </si>
+  <si>
+    <t>252/4577</t>
+  </si>
+  <si>
+    <t>283/4577</t>
   </si>
   <si>
     <t>lft2/id4/pitx2/bmp4/gdf6a/id2b</t>
@@ -553,16 +556,16 @@
         <v>85</v>
       </c>
       <c r="F2" t="n">
-        <v>8.87790260178978E-5</v>
+        <v>8.888544296962025E-5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0031960449366443206</v>
+        <v>0.003199875946906329</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0028969997963735074</v>
+        <v>0.0029004723495349768</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J2" t="n">
         <v>6.0</v>
@@ -585,16 +588,16 @@
         <v>86</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0267770787597254</v>
+        <v>0.02679583594571792</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2277008394719647</v>
+        <v>0.22779212786743916</v>
       </c>
       <c r="H3" t="n">
-        <v>0.20639549776698557</v>
+        <v>0.2064782445582051</v>
       </c>
       <c r="I3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J3" t="n">
         <v>4.0</v>
@@ -617,16 +620,16 @@
         <v>87</v>
       </c>
       <c r="F4" t="n">
-        <v>0.027100162743426907</v>
+        <v>0.027115377030121332</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2277008394719647</v>
+        <v>0.22779212786743916</v>
       </c>
       <c r="H4" t="n">
-        <v>0.20639549776698557</v>
+        <v>0.2064782445582051</v>
       </c>
       <c r="I4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J4" t="n">
         <v>3.0</v>
@@ -649,16 +652,16 @@
         <v>88</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03088318763288815</v>
+        <v>0.030900371864929475</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2277008394719647</v>
+        <v>0.22779212786743916</v>
       </c>
       <c r="H5" t="n">
-        <v>0.20639549776698557</v>
+        <v>0.2064782445582051</v>
       </c>
       <c r="I5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J5" t="n">
         <v>3.0</v>
@@ -681,16 +684,16 @@
         <v>89</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03162511659332843</v>
+        <v>0.031637795537144325</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2277008394719647</v>
+        <v>0.22779212786743916</v>
       </c>
       <c r="H6" t="n">
-        <v>0.20639549776698557</v>
+        <v>0.2064782445582051</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J6" t="n">
         <v>2.0</v>
@@ -713,16 +716,16 @@
         <v>90</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08598132573715277</v>
+        <v>0.08602474297657746</v>
       </c>
       <c r="G7" t="n">
-        <v>0.49989961772946173</v>
+        <v>0.5000837174248827</v>
       </c>
       <c r="H7" t="n">
-        <v>0.45312538449161743</v>
+        <v>0.45329225848454274</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J7" t="n">
         <v>3.0</v>
@@ -745,16 +748,16 @@
         <v>91</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09720270344739533</v>
+        <v>0.09723850061039384</v>
       </c>
       <c r="G8" t="n">
-        <v>0.49989961772946173</v>
+        <v>0.5000837174248827</v>
       </c>
       <c r="H8" t="n">
-        <v>0.45312538449161743</v>
+        <v>0.45329225848454274</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J8" t="n">
         <v>2.0</v>
@@ -777,16 +780,16 @@
         <v>92</v>
       </c>
       <c r="F9" t="n">
-        <v>0.11303353422395657</v>
+        <v>0.11305691150643471</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5086509040078045</v>
+        <v>0.5087561017789561</v>
       </c>
       <c r="H9" t="n">
-        <v>0.46105783696613867</v>
+        <v>0.4611531916709837</v>
       </c>
       <c r="I9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
@@ -809,16 +812,16 @@
         <v>93</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1835560021273388</v>
+        <v>0.18363765384991085</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5195278462969298</v>
+        <v>0.5192982058407869</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4709170536609599</v>
+        <v>0.4707089000311227</v>
       </c>
       <c r="I10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J10" t="n">
         <v>3.0</v>
@@ -831,8 +834,8 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="e">
-        <v>#N/A</v>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
@@ -841,16 +844,16 @@
         <v>94</v>
       </c>
       <c r="F11" t="n">
-        <v>0.19301688237310155</v>
+        <v>0.19305495485877044</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5195278462969298</v>
+        <v>0.5192982058407869</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4709170536609599</v>
+        <v>0.4707089000311227</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
@@ -873,16 +876,16 @@
         <v>95</v>
       </c>
       <c r="F12" t="n">
-        <v>0.19992932287111354</v>
+        <v>0.19996858771476933</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5195278462969298</v>
+        <v>0.5192982058407869</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4709170536609599</v>
+        <v>0.4707089000311227</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J12" t="n">
         <v>1.0</v>
@@ -905,16 +908,16 @@
         <v>96</v>
       </c>
       <c r="F13" t="n">
-        <v>0.21358155829023706</v>
+        <v>0.2136231402303148</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5195278462969298</v>
+        <v>0.5192982058407869</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4709170536609599</v>
+        <v>0.4707089000311227</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J13" t="n">
         <v>1.0</v>
@@ -937,16 +940,16 @@
         <v>96</v>
       </c>
       <c r="F14" t="n">
-        <v>0.21358155829023706</v>
+        <v>0.2136231402303148</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5195278462969298</v>
+        <v>0.5192982058407869</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4709170536609599</v>
+        <v>0.4707089000311227</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J14" t="n">
         <v>1.0</v>
@@ -969,16 +972,16 @@
         <v>97</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2203222877906068</v>
+        <v>0.22036499504038665</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5195278462969298</v>
+        <v>0.5192982058407869</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4709170536609599</v>
+        <v>0.4707089000311227</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J15" t="n">
         <v>1.0</v>
@@ -1001,16 +1004,16 @@
         <v>98</v>
       </c>
       <c r="F16" t="n">
-        <v>0.22700670871304385</v>
+        <v>0.22705051948924904</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5195278462969298</v>
+        <v>0.5192982058407869</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4709170536609599</v>
+        <v>0.4707089000311227</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J16" t="n">
         <v>1.0</v>
@@ -1033,16 +1036,16 @@
         <v>99</v>
       </c>
       <c r="F17" t="n">
-        <v>0.23363527915284</v>
+        <v>0.23368017195019408</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5195278462969298</v>
+        <v>0.5192982058407869</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4709170536609599</v>
+        <v>0.4707089000311227</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J17" t="n">
         <v>1.0</v>
@@ -1059,25 +1062,25 @@
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
         <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2596000916355111</v>
+        <v>0.2566577180136242</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5195278462969298</v>
+        <v>0.5192982058407869</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4709170536609599</v>
+        <v>0.4707089000311227</v>
       </c>
       <c r="I18" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="J18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -1091,25 +1094,25 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
         <v>101</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2597639231484649</v>
+        <v>0.25964910292039345</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5195278462969298</v>
+        <v>0.5192982058407869</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4709170536609599</v>
+        <v>0.4707089000311227</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -1129,16 +1132,16 @@
         <v>102</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2785091840698415</v>
+        <v>0.278561071597184</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5199902010234321</v>
+        <v>0.5201353423678187</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4713361471265029</v>
+        <v>0.47146770799422166</v>
       </c>
       <c r="I20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J20" t="n">
         <v>1.0</v>
@@ -1161,16 +1164,16 @@
         <v>103</v>
       </c>
       <c r="F21" t="n">
-        <v>0.31492625369766325</v>
+        <v>0.31498337694781386</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5199902010234321</v>
+        <v>0.5201353423678187</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4713361471265029</v>
+        <v>0.47146770799422166</v>
       </c>
       <c r="I21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J21" t="n">
         <v>1.0</v>
@@ -1193,16 +1196,16 @@
         <v>104</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3266624197928254</v>
+        <v>0.3267211423837052</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5199902010234321</v>
+        <v>0.5201353423678187</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4713361471265029</v>
+        <v>0.47146770799422166</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J22" t="n">
         <v>1.0</v>
@@ -1225,16 +1228,16 @@
         <v>105</v>
       </c>
       <c r="F23" t="n">
-        <v>0.339186670698045</v>
+        <v>0.33928364956050183</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5199902010234321</v>
+        <v>0.5201353423678187</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4713361471265029</v>
+        <v>0.47146770799422166</v>
       </c>
       <c r="I23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J23" t="n">
         <v>2.0</v>
@@ -1257,16 +1260,16 @@
         <v>106</v>
       </c>
       <c r="F24" t="n">
-        <v>0.34390019334023225</v>
+        <v>0.3439611846687658</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5199902010234321</v>
+        <v>0.5201353423678187</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4713361471265029</v>
+        <v>0.47146770799422166</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J24" t="n">
         <v>1.0</v>
@@ -1289,16 +1292,16 @@
         <v>107</v>
       </c>
       <c r="F25" t="n">
-        <v>0.35515235618838426</v>
+        <v>0.3552147758231562</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5199902010234321</v>
+        <v>0.5201353423678187</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4713361471265029</v>
+        <v>0.47146770799422166</v>
       </c>
       <c r="I25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J25" t="n">
         <v>1.0</v>
@@ -1321,16 +1324,16 @@
         <v>108</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3611043062662723</v>
+        <v>0.36120509886654073</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5199902010234321</v>
+        <v>0.5201353423678187</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4713361471265029</v>
+        <v>0.47146770799422166</v>
       </c>
       <c r="I26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J26" t="n">
         <v>2.0</v>
@@ -1353,16 +1356,16 @@
         <v>109</v>
       </c>
       <c r="F27" t="n">
-        <v>0.37621631358047736</v>
+        <v>0.3763750951332001</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5209148957268148</v>
+        <v>0.5211347471075078</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4721743206880486</v>
+        <v>0.47237360117932004</v>
       </c>
       <c r="I27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J27" t="n">
         <v>4.0</v>
@@ -1385,16 +1388,16 @@
         <v>110</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4671613597522559</v>
+        <v>0.46723554681907464</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6006360339671862</v>
+        <v>0.6007314173388103</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5444361711398471</v>
+        <v>0.5445226297515533</v>
       </c>
       <c r="I28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J28" t="n">
         <v>1.0</v>
@@ -1417,16 +1420,16 @@
         <v>110</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4671613597522559</v>
+        <v>0.46723554681907464</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6006360339671862</v>
+        <v>0.6007314173388103</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5444361711398471</v>
+        <v>0.5445226297515533</v>
       </c>
       <c r="I29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J29" t="n">
         <v>1.0</v>
@@ -1449,16 +1452,16 @@
         <v>111</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5761120876795462</v>
+        <v>0.5762337416940024</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7078167371108656</v>
+        <v>0.7035877996240455</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6415882704806093</v>
+        <v>0.6377550230510355</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J30" t="n">
         <v>2.0</v>
@@ -1481,16 +1484,16 @@
         <v>112</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5898472809257214</v>
+        <v>0.5863231663533712</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7078167371108656</v>
+        <v>0.7035877996240455</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6415882704806093</v>
+        <v>0.6377550230510355</v>
       </c>
       <c r="I31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J31" t="n">
         <v>1.0</v>
@@ -1513,16 +1516,16 @@
         <v>113</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6618457769647661</v>
+        <v>0.6589402879367039</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7445764990853618</v>
+        <v>0.7513033036670286</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6749085225627549</v>
+        <v>0.6810059185285933</v>
       </c>
       <c r="I32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J32" t="n">
         <v>1.0</v>
@@ -1542,19 +1545,19 @@
         <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6618457769647661</v>
+        <v>0.6678251588151365</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7445764990853618</v>
+        <v>0.7513033036670286</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6749085225627549</v>
+        <v>0.6810059185285933</v>
       </c>
       <c r="I33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J33" t="n">
         <v>1.0</v>
@@ -1574,19 +1577,19 @@
         <v>84</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7139907421135776</v>
+        <v>0.7089741025735246</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7788989913966301</v>
+        <v>0.7734262937165722</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7060195536051327</v>
+        <v>0.7010589212050802</v>
       </c>
       <c r="I34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J34" t="n">
         <v>1.0</v>
@@ -1606,19 +1609,19 @@
         <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7381980786386346</v>
+        <v>0.7382763824418647</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7816214950291426</v>
+        <v>0.781704404938445</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7084873200556556</v>
+        <v>0.7085624723126256</v>
       </c>
       <c r="I35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J35" t="n">
         <v>1.0</v>
@@ -1638,19 +1641,19 @@
         <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8911321398706915</v>
+        <v>0.8911866300374025</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9165930581527112</v>
+        <v>0.9166491051813282</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8308299649922238</v>
+        <v>0.8308807678544206</v>
       </c>
       <c r="I36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J36" t="n">
         <v>1.0</v>
@@ -1670,19 +1673,19 @@
         <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9178610756352703</v>
+        <v>0.917907578178266</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9178610756352703</v>
+        <v>0.917907578178266</v>
       </c>
       <c r="H37" t="n">
-        <v>0.831979337564134</v>
+        <v>0.8320214889919956</v>
       </c>
       <c r="I37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J37" t="n">
         <v>1.0</v>
